--- a/CashFlow/MXIM_cashflow.xlsx
+++ b/CashFlow/MXIM_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1029000000.0</v>
+        <v>-17556000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1008000000.0</v>
+        <v>-33198000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>759005000.0</v>
+        <v>-25235000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>503583000.0</v>
+        <v>-8671000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>269966000.0</v>
+        <v>52274000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>55089000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10208000.0</v>
+        <v>378000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>8272000.0</v>
+        <v>360000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-4218000.0</v>
+        <v>259455000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>37419000.0</v>
+        <v>210669000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-12398000.0</v>
+        <v>74257000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>16135000.0</v>
